--- a/8. OpenPyXL/Prueba_2.xlsx
+++ b/8. OpenPyXL/Prueba_2.xlsx
@@ -46,7 +46,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -60,16 +60,39 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -435,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="70" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -532,9 +555,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>30</v>
-      </c>
+      <c r="A3" s="3" t="n"/>
       <c r="B3" s="2" t="n">
         <v>30</v>
       </c>
@@ -562,9 +583,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>30</v>
-      </c>
+      <c r="A4" s="3" t="n"/>
       <c r="B4" s="2" t="n">
         <v>5</v>
       </c>
@@ -592,9 +611,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>30</v>
-      </c>
+      <c r="A5" s="4" t="n"/>
       <c r="B5" s="2" t="n">
         <v>5</v>
       </c>
@@ -621,22 +638,106 @@
         <v/>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B6" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="C6" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="D6" s="2">
+        <f> B6 + C6</f>
+        <v/>
+      </c>
+      <c r="E6" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="H6" s="2">
+        <f> D6 + E6 + F6 + G6</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="n"/>
+      <c r="B7" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="C7" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="D7" s="2">
+        <f> B7 + C7</f>
+        <v/>
+      </c>
+      <c r="E7" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="H7" s="2">
+        <f> D7 + E7 + F7 + G7</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="n"/>
+      <c r="B8" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="C8" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="D8" s="2">
+        <f> B8 + C8</f>
+        <v/>
+      </c>
+      <c r="E8" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="H8" s="2">
+        <f> D8 + E8 + F8 + G8</f>
+        <v/>
+      </c>
+    </row>
     <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>20</v>
-      </c>
+      <c r="A9" s="3" t="n"/>
       <c r="B9" s="2" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D9" s="2">
-        <f> B6 + C6</f>
+        <f> B9 + C9</f>
         <v/>
       </c>
       <c r="E9" s="2" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
@@ -644,119 +745,113 @@
         </is>
       </c>
       <c r="G9" s="2" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H9" s="2">
-        <f> D6 + E6 + F6 + G6</f>
+        <f> D9 + E9 + F9 + G9</f>
         <v/>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>20</v>
-      </c>
+      <c r="A10" s="4" t="n"/>
       <c r="B10" s="2" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D10" s="2">
-        <f> B7 + C7</f>
+        <f> B10 + C10</f>
         <v/>
       </c>
       <c r="E10" s="2" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G10" s="2" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H10" s="2">
-        <f> D7 + E7 + F7 + G7</f>
+        <f> D10 + E10 + F10 + G10</f>
         <v/>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="D11" s="2">
-        <f> B8 + C8</f>
+        <f> B11 + C11</f>
         <v/>
       </c>
       <c r="E11" s="2" t="n">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G11" s="2" t="n">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="H11" s="2">
-        <f> D8 + E8 + F8 + G8</f>
+        <f> D11 + E11 + F11 + G11</f>
         <v/>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>20</v>
-      </c>
+      <c r="A12" s="3" t="n"/>
       <c r="B12" s="2" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C12" s="2" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D12" s="2">
-        <f> B9 + C9</f>
+        <f> B12 + C12</f>
         <v/>
       </c>
       <c r="E12" s="2" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G12" s="2" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H12" s="2">
-        <f> D9 + E9 + F9 + G9</f>
+        <f> D12 + E12 + F12 + G12</f>
         <v/>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>20</v>
-      </c>
+      <c r="A13" s="4" t="n"/>
       <c r="B13" s="2" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C13" s="2" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D13" s="2">
-        <f> B10 + C10</f>
+        <f> B13 + C13</f>
         <v/>
       </c>
       <c r="E13" s="2" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
@@ -764,107 +859,19 @@
         </is>
       </c>
       <c r="G13" s="2" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H13" s="2">
-        <f> D10 + E10 + F10 + G10</f>
-        <v/>
-      </c>
-    </row>
-    <row r="14"/>
-    <row r="15"/>
-    <row r="16"/>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B17" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="C17" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="D17" s="2">
-        <f> B11 + C11</f>
-        <v/>
-      </c>
-      <c r="E17" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="H17" s="2">
-        <f> D11 + E11 + F11 + G11</f>
-        <v/>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B18" s="2" t="n">
-        <v>35</v>
-      </c>
-      <c r="C18" s="2" t="n">
-        <v>35</v>
-      </c>
-      <c r="D18" s="2">
-        <f> B12 + C12</f>
-        <v/>
-      </c>
-      <c r="E18" s="2" t="n">
-        <v>35</v>
-      </c>
-      <c r="F18" s="2" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="G18" s="2" t="n">
-        <v>35</v>
-      </c>
-      <c r="H18" s="2">
-        <f> D12 + E12 + F12 + G12</f>
-        <v/>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B19" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="C19" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="D19" s="2">
-        <f> B13 + C13</f>
-        <v/>
-      </c>
-      <c r="E19" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="F19" s="2" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="G19" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="H19" s="2">
         <f> D13 + E13 + F13 + G13</f>
         <v/>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A6:A10"/>
+    <mergeCell ref="A2:A5"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>

--- a/8. OpenPyXL/Prueba_2.xlsx
+++ b/8. OpenPyXL/Prueba_2.xlsx
@@ -458,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="70" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -585,7 +585,7 @@
     <row r="4">
       <c r="A4" s="3" t="n"/>
       <c r="B4" s="2" t="n">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>5</v>
@@ -613,7 +613,7 @@
     <row r="5">
       <c r="A5" s="4" t="n"/>
       <c r="B5" s="2" t="n">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>10</v>
@@ -638,238 +638,244 @@
         <v/>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
+    <row r="6"/>
+    <row r="7"/>
+    <row r="8"/>
+    <row r="9">
+      <c r="A9" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="B6" s="2" t="n">
+      <c r="B9" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="C9" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="D9" s="2">
+        <f> B6 + C6</f>
+        <v/>
+      </c>
+      <c r="E9" s="2" t="n">
         <v>35</v>
       </c>
-      <c r="C6" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="D6" s="2">
-        <f> B6 + C6</f>
-        <v/>
-      </c>
-      <c r="E6" s="2" t="n">
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="n">
         <v>35</v>
       </c>
-      <c r="F6" s="2" t="inlineStr">
+      <c r="H9" s="2">
+        <f> D6 + E6 + F6 + G6</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="n"/>
+      <c r="B10" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="C10" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="D10" s="2">
+        <f> B7 + C7</f>
+        <v/>
+      </c>
+      <c r="E10" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="G6" s="2" t="n">
-        <v>35</v>
-      </c>
-      <c r="H6" s="2">
-        <f> D6 + E6 + F6 + G6</f>
-        <v/>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="3" t="n"/>
-      <c r="B7" s="2" t="n">
+      <c r="G10" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="C7" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="D7" s="2">
-        <f> B7 + C7</f>
-        <v/>
-      </c>
-      <c r="E7" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
+      <c r="H10" s="2">
+        <f> D7 + E7 + F7 + G7</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="n"/>
+      <c r="B11" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="C11" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="D11" s="2">
+        <f> B8 + C8</f>
+        <v/>
+      </c>
+      <c r="E11" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="G7" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="H7" s="2">
-        <f> D7 + E7 + F7 + G7</f>
-        <v/>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="3" t="n"/>
-      <c r="B8" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="C8" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="D8" s="2">
-        <f> B8 + C8</f>
-        <v/>
-      </c>
-      <c r="E8" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="H8" s="2">
+      <c r="G11" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="H11" s="2">
         <f> D8 + E8 + F8 + G8</f>
-        <v/>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="3" t="n"/>
-      <c r="B9" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="C9" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="D9" s="2">
-        <f> B9 + C9</f>
-        <v/>
-      </c>
-      <c r="E9" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="H9" s="2">
-        <f> D9 + E9 + F9 + G9</f>
-        <v/>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="4" t="n"/>
-      <c r="B10" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="C10" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="D10" s="2">
-        <f> B10 + C10</f>
-        <v/>
-      </c>
-      <c r="E10" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="H10" s="2">
-        <f> D10 + E10 + F10 + G10</f>
-        <v/>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B11" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="C11" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="D11" s="2">
-        <f> B11 + C11</f>
-        <v/>
-      </c>
-      <c r="E11" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="H11" s="2">
-        <f> D11 + E11 + F11 + G11</f>
         <v/>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="3" t="n"/>
       <c r="B12" s="2" t="n">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="C12" s="2" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D12" s="2">
-        <f> B12 + C12</f>
+        <f> B9 + C9</f>
         <v/>
       </c>
       <c r="E12" s="2" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G12" s="2" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H12" s="2">
-        <f> D12 + E12 + F12 + G12</f>
+        <f> D9 + E9 + F9 + G9</f>
         <v/>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="4" t="n"/>
       <c r="B13" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="C13" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D13" s="2">
+        <f> B10 + C10</f>
+        <v/>
+      </c>
+      <c r="E13" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="H13" s="2">
+        <f> D10 + E10 + F10 + G10</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14"/>
+    <row r="15"/>
+    <row r="16"/>
+    <row r="17">
+      <c r="A17" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="C13" s="2" t="n">
+      <c r="B17" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="D13" s="2">
+      <c r="C17" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D17" s="2">
+        <f> B11 + C11</f>
+        <v/>
+      </c>
+      <c r="E17" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="H17" s="2">
+        <f> D11 + E11 + F11 + G11</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="3" t="n"/>
+      <c r="B18" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="C18" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="D18" s="2">
+        <f> B12 + C12</f>
+        <v/>
+      </c>
+      <c r="E18" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="H18" s="2">
+        <f> D12 + E12 + F12 + G12</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="4" t="n"/>
+      <c r="B19" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="C19" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="D19" s="2">
         <f> B13 + C13</f>
         <v/>
       </c>
-      <c r="E13" s="2" t="n">
+      <c r="E19" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="F13" s="2" t="inlineStr">
+      <c r="F19" s="2" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="G13" s="2" t="n">
+      <c r="G19" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="H13" s="2">
+      <c r="H19" s="2">
         <f> D13 + E13 + F13 + G13</f>
         <v/>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="A6:A10"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="A9:A13"/>
     <mergeCell ref="A2:A5"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
